--- a/a.xlsx
+++ b/a.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\test_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C1B375-49B7-4B4B-8245-905C12BC3B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77B01A3B-C212-4FD0-B7CE-F4F6FC665EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3938,8 +3938,8 @@
   <dimension ref="B1:AE688"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <pane xSplit="5" topLeftCell="S1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.05" customHeight="1"/>
